--- a/biology/Histoire de la zoologie et de la botanique/Ten/Ten..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ten/Ten..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michele Tenore (né le 5 mai 1780 à Naples et mort le 19 juillet 1861 dans cette même ville) est un botaniste italien du XIXe siècle.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Michele Tenore fait des études de médecine à l’université de Naples et devient docteur en 1800. Passionné très tôt par la botanique, il fréquente les botanistes Domenico Maria Leone Cirillo (1739-1799) et Vincenzo Petagna (1734-1810).
 Il fait de nombreuses excursions botaniques dans les Abruzzes et en particulier à Majella pour y étudier la flore. Il donne également des cours privés sur la botanique. Il s’occupe de la création du Jardin botanique de Naples dont il devient le directeur en 1810. En 1811, il succède à Petagna à la chaire de botanique de l’université de la ville. Membre de diverses sociétés savantes, il devient le président de l’Académie des sciences.
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1808 : Saggio sulle qualità medicinali delle piante della flora Napolitana : e sulla maniera di servirsene per surrogarle alle droghe esotiche. Nella Tipografia Coda, Napoli 1808.
 1811-1838 : Flora Napolitana. Napoli. 1-5. Stamperia Reale, Napoli. Tipografia del Giornale Enciclopedico, Napoli. Stamperia Francese, Napoli. Stamperia Francese, Napoli.
